--- a/19 - Análise dos Eventos para cada Cenário.xlsx
+++ b/19 - Análise dos Eventos para cada Cenário.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Contratar Obra" sheetId="1" r:id="rId1"/>
@@ -106,12 +106,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Maximus faz solicitação de visita</t>
-  </si>
-  <si>
-    <t>Cliente verifica disponibilidade de agenda e responde</t>
-  </si>
-  <si>
     <t>X(2)</t>
   </si>
   <si>
@@ -503,6 +497,12 @@
   </si>
   <si>
     <t>Orçar Fornecedor</t>
+  </si>
+  <si>
+    <t>Maximus faz sugestão de visita</t>
+  </si>
+  <si>
+    <t>Cliente responde sugestão</t>
   </si>
 </sst>
 </file>
@@ -1817,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1902,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
@@ -1920,12 +1920,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -1938,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
@@ -1952,26 +1952,26 @@
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="96"/>
       <c r="B7" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="16">
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>12</v>
@@ -1980,12 +1980,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1998,11 +1998,11 @@
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -2012,17 +2012,17 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="76"/>
       <c r="B10" s="79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -2036,12 +2036,12 @@
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -2050,17 +2050,17 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="76"/>
       <c r="B12" s="81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -2074,12 +2074,12 @@
         <v>11</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -2088,18 +2088,18 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="76"/>
       <c r="B14" s="83" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>12</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -2112,11 +2112,11 @@
         <v>13</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="83" t="s">
         <v>12</v>
@@ -2134,7 +2134,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>14</v>
@@ -2152,12 +2152,12 @@
         <v>15</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2170,11 +2170,11 @@
         <v>16</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
@@ -2184,18 +2184,18 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="76"/>
       <c r="B19" s="83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="16">
         <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -2208,12 +2208,12 @@
         <v>18</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="68" t="s">
         <v>12</v>
@@ -2230,11 +2230,11 @@
         <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -2248,12 +2248,12 @@
         <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -2266,11 +2266,11 @@
         <v>21</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -2284,12 +2284,12 @@
         <v>22</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -2302,11 +2302,11 @@
         <v>23</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -2316,33 +2316,33 @@
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="7">
         <v>25</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="70" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2358,12 +2358,12 @@
         <v>27</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -2376,11 +2376,11 @@
         <v>28</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -2390,17 +2390,17 @@
     <row r="30" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="7">
         <v>29</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -2412,7 +2412,7 @@
       <c r="B31" s="139"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="9"/>
@@ -2424,11 +2424,11 @@
     <row r="32" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="138" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="9"/>
@@ -2442,7 +2442,7 @@
       <c r="B33" s="139"/>
       <c r="C33" s="7"/>
       <c r="D33" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="9"/>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="72" t="s">
         <v>12</v>
@@ -2462,7 +2462,7 @@
         <v>30</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="9"/>
@@ -2480,11 +2480,11 @@
         <v>31</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -2494,17 +2494,17 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="71"/>
       <c r="B36" s="72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" s="16">
         <v>32</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
@@ -2518,12 +2518,12 @@
         <v>33</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>12</v>
@@ -2540,7 +2540,7 @@
         <v>34</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="9"/>
@@ -2558,11 +2558,11 @@
         <v>36</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>12</v>
@@ -2580,12 +2580,12 @@
         <v>39</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="9"/>
       <c r="G40" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -2598,11 +2598,11 @@
         <v>40</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2616,11 +2616,11 @@
         <v>41</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -2630,46 +2630,46 @@
     <row r="43" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="16">
         <v>42</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58"/>
       <c r="B44" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="16">
         <v>43</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>12</v>
@@ -2678,12 +2678,12 @@
         <v>44</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="9"/>
       <c r="G45" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -2692,18 +2692,18 @@
     <row r="46" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="58"/>
       <c r="B46" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C46" s="7">
         <v>45</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="9"/>
       <c r="G46" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -2711,16 +2711,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C47" s="7">
         <v>46</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="9"/>
@@ -2738,11 +2738,11 @@
         <v>47</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -2756,12 +2756,12 @@
         <v>48</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="9"/>
       <c r="G49" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -2776,14 +2776,14 @@
         <v>49</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J50" s="11"/>
     </row>
@@ -2794,12 +2794,12 @@
         <v>50</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="9"/>
       <c r="G51" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -2932,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
@@ -2950,12 +2950,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -2964,26 +2964,26 @@
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="112"/>
       <c r="B6" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <v>4</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="97" t="s">
         <v>12</v>
@@ -2992,12 +2992,12 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -3010,11 +3010,11 @@
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3024,17 +3024,17 @@
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76"/>
       <c r="B9" s="99" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="13">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -3048,12 +3048,12 @@
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -3062,17 +3062,17 @@
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
       <c r="B11" s="81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -3086,12 +3086,12 @@
         <v>10</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -3100,18 +3100,18 @@
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76"/>
       <c r="B13" s="102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="13">
         <v>11</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -3124,11 +3124,11 @@
         <v>12</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="102" t="s">
         <v>12</v>
@@ -3146,7 +3146,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>14</v>
@@ -3164,12 +3164,12 @@
         <v>14</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="9"/>
       <c r="G16" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="17" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>12</v>
@@ -3186,12 +3186,12 @@
         <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -3225,7 +3225,7 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -3281,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
@@ -3299,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="9" t="s">
@@ -3317,12 +3317,12 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="28"/>
       <c r="G4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
@@ -3331,26 +3331,26 @@
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="129"/>
       <c r="B5" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="16">
         <v>5</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="9"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="124" t="s">
         <v>12</v>
@@ -3359,12 +3359,12 @@
         <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
@@ -3377,11 +3377,11 @@
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
@@ -3391,17 +3391,17 @@
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="122"/>
       <c r="B8" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -3415,12 +3415,12 @@
         <v>10</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="28"/>
       <c r="G9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -3429,15 +3429,15 @@
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
       <c r="B10" s="118" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="55"/>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="30"/>
@@ -3449,12 +3449,12 @@
       <c r="B11" s="119"/>
       <c r="C11" s="16"/>
       <c r="D11" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="28"/>
       <c r="G11" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -3463,11 +3463,11 @@
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
       <c r="B12" s="120" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="28"/>
@@ -3481,7 +3481,7 @@
       <c r="B13" s="119"/>
       <c r="C13" s="16"/>
       <c r="D13" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="28"/>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="70" t="s">
         <v>12</v>
@@ -3501,7 +3501,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -3517,7 +3517,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="123" t="s">
         <v>12</v>
@@ -3537,7 +3537,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -3553,7 +3553,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="28"/>
@@ -3569,7 +3569,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="28"/>
@@ -3581,13 +3581,13 @@
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="122"/>
       <c r="B19" s="53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7">
         <v>17</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="28"/>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20" s="70" t="s">
         <v>12</v>
@@ -3607,7 +3607,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -3623,7 +3623,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
@@ -3639,7 +3639,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
@@ -3655,7 +3655,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -3671,7 +3671,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -3683,13 +3683,13 @@
     <row r="25" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="126"/>
       <c r="B25" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="35">
         <v>23</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="128" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" s="114" t="s">
         <v>12</v>
@@ -3709,7 +3709,7 @@
         <v>33</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="36"/>
@@ -3725,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
@@ -3741,7 +3741,7 @@
         <v>36</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
@@ -3753,13 +3753,13 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="128"/>
       <c r="B29" s="135" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C29" s="41">
         <v>37</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
@@ -3775,7 +3775,7 @@
         <v>39</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="36"/>
@@ -3789,7 +3789,7 @@
       <c r="B31" s="136"/>
       <c r="C31" s="41"/>
       <c r="D31" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -3801,13 +3801,13 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="128"/>
       <c r="B32" s="135" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C32" s="41">
         <v>40</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
@@ -3823,7 +3823,7 @@
         <v>41</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="34" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="113" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="135" t="s">
         <v>12</v>
@@ -3843,7 +3843,7 @@
         <v>42</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
@@ -3857,7 +3857,7 @@
       <c r="B35" s="136"/>
       <c r="C35" s="41"/>
       <c r="D35" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
@@ -3869,13 +3869,13 @@
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="113"/>
       <c r="B36" s="135" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" s="41">
         <v>43</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
@@ -3891,7 +3891,7 @@
         <v>44</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="128" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="114" t="s">
         <v>12</v>
@@ -3911,7 +3911,7 @@
         <v>47</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="36"/>
       <c r="F38" s="36"/>
@@ -3927,7 +3927,7 @@
         <v>48</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="40" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B40" s="43" t="s">
         <v>12</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="113" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="114" t="s">
         <v>12</v>
@@ -3963,7 +3963,7 @@
         <v>52</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
@@ -3979,7 +3979,7 @@
         <v>53</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E42" s="36"/>
       <c r="F42" s="36"/>
@@ -3995,7 +3995,7 @@
         <v>54</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B45" s="114" t="s">
         <v>12</v>
@@ -4029,7 +4029,7 @@
         <v>56</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="36"/>
@@ -4045,7 +4045,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
@@ -4061,7 +4061,7 @@
         <v>58</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -4073,13 +4073,13 @@
     <row r="48" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="117"/>
       <c r="B48" s="43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48" s="45">
         <v>59</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E48" s="49"/>
       <c r="F48" s="49"/>
